--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -131,14 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,344 +143,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -493,324 +172,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1101,140 +491,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="2"/>
+      <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -1302,9 +693,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="3">
-        <v>43344</v>
+    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1398,8 +790,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1492,8 +884,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1588,16 +980,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -1605,23 +988,31 @@
     <mergeCell ref="C1:L2"/>
     <mergeCell ref="M1:T2"/>
     <mergeCell ref="U1:X2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.375" customWidth="1"/>
     <col min="2" max="3" width="42.75" customWidth="1"/>
@@ -1634,7 +1025,7 @@
     <col min="21" max="22" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1702,20 +1093,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -145,6 +145,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +501,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="C5" sqref="C5:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +696,7 @@
     </row>
     <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <f>_metadata!B1</f>
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -980,6 +981,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A1:A4"/>
@@ -995,8 +998,6 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -132,8 +132,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,27 +151,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,23 +755,70 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -492,141 +1109,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:X10"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="3"/>
+      <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -694,8 +1311,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A5" s="3">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
@@ -791,8 +1408,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+    <row r="6" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -885,8 +1502,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+    <row r="7" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -981,9 +1598,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -991,29 +1615,23 @@
     <mergeCell ref="C1:L2"/>
     <mergeCell ref="M1:T2"/>
     <mergeCell ref="U1:X2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.375" customWidth="1"/>
     <col min="2" max="3" width="42.75" customWidth="1"/>
@@ -1026,7 +1644,7 @@
     <col min="21" max="22" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1094,35 +1712,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -135,11 +135,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +148,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -164,31 +232,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,89 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -291,9 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,121 +301,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,55 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +495,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,13 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,151 +610,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1312,9 +1305,9 @@
       </c>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="1:24">
-      <c r="A5" s="3">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="A5" s="3" t="str">
+        <f>IF(_metadata!B4="","",_metadata!B4)</f>
+        <v/>
       </c>
       <c r="B5" t="s">
         <v>12</v>

--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介20181216 - v1\能介\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -132,14 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,345 +147,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -494,328 +178,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,141 +500,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="2"/>
+      <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -1304,8 +702,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="23.25" customHeight="1" spans="1:24">
-      <c r="A5" s="3" t="str">
+    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>IF(_metadata!B4="","",_metadata!B4)</f>
         <v/>
       </c>
@@ -1313,294 +711,284 @@
         <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f>IF(_acsReport_day_shift!A2="","",_acsReport_day_shift!A2)</f>
+        <f>IF(_acsReport_day_shift!A2="","",IF(_acsReport_day_shift!A2&gt;0,_acsReport_day_shift!A2,""))</f>
         <v/>
       </c>
       <c r="D5" t="str">
-        <f>IF(_acsReport_day_shift!B2="","",_acsReport_day_shift!B2)</f>
+        <f>IF(_acsReport_day_shift!B2="","",IF(_acsReport_day_shift!B2&gt;0,_acsReport_day_shift!B2,""))</f>
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>IF(_acsReport_day_shift!C2="","",_acsReport_day_shift!C2)</f>
+        <f>IF(_acsReport_day_shift!C2="","",IF(_acsReport_day_shift!C2&gt;0,_acsReport_day_shift!C2,""))</f>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(_acsReport_day_shift!D2="","",_acsReport_day_shift!D2)</f>
+        <f>IF(_acsReport_day_shift!D2="","",IF(_acsReport_day_shift!D2&gt;0,_acsReport_day_shift!D2,""))</f>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>IF(_acsReport_day_shift!E2="","",_acsReport_day_shift!E2)</f>
+        <f>IF(_acsReport_day_shift!E2="","",IF(_acsReport_day_shift!E2&gt;0,_acsReport_day_shift!E2,""))</f>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF(_acsReport_day_shift!F2="","",_acsReport_day_shift!F2)</f>
+        <f>IF(_acsReport_day_shift!F2="","",IF(_acsReport_day_shift!F2&gt;0,_acsReport_day_shift!F2,""))</f>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f>IF(_acsReport_day_shift!G2="","",_acsReport_day_shift!G2)</f>
+        <f>IF(_acsReport_day_shift!G2="","",IF(_acsReport_day_shift!G2&gt;0,_acsReport_day_shift!G2,""))</f>
         <v/>
       </c>
       <c r="J5" t="str">
-        <f>IF(_acsReport_day_shift!H2="","",_acsReport_day_shift!H2)</f>
+        <f>IF(_acsReport_day_shift!H2="","",IF(_acsReport_day_shift!H2&gt;0,_acsReport_day_shift!H2,""))</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(_acsReport_day_shift!I2="","",_acsReport_day_shift!I2)</f>
+        <f>IF(_acsReport_day_shift!I2="","",IF(_acsReport_day_shift!I2&gt;0,_acsReport_day_shift!I2,""))</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(_acsReport_day_shift!J2="","",_acsReport_day_shift!J2)</f>
+        <f>IF(_acsReport_day_shift!J2="","",IF(_acsReport_day_shift!J2&gt;0,_acsReport_day_shift!J2,""))</f>
         <v/>
       </c>
       <c r="M5" t="str">
-        <f>IF(_acsReport_day_shift!K2="","",_acsReport_day_shift!K2)</f>
+        <f>IF(_acsReport_day_shift!K2="","",IF(_acsReport_day_shift!K2&gt;0,_acsReport_day_shift!K2,""))</f>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f>IF(_acsReport_day_shift!L2="","",_acsReport_day_shift!L2)</f>
+        <f>IF(_acsReport_day_shift!L2="","",IF(_acsReport_day_shift!L2&gt;0,_acsReport_day_shift!L2,""))</f>
         <v/>
       </c>
       <c r="O5" t="str">
-        <f>IF(_acsReport_day_shift!M2="","",_acsReport_day_shift!M2)</f>
+        <f>IF(_acsReport_day_shift!M2="","",IF(_acsReport_day_shift!M2&gt;0,_acsReport_day_shift!M2,""))</f>
         <v/>
       </c>
       <c r="P5" t="str">
-        <f>IF(_acsReport_day_shift!N2="","",_acsReport_day_shift!N2)</f>
+        <f>IF(_acsReport_day_shift!N2="","",IF(_acsReport_day_shift!N2&gt;0,_acsReport_day_shift!N2,""))</f>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f>IF(_acsReport_day_shift!O2="","",_acsReport_day_shift!O2)</f>
+        <f>IF(_acsReport_day_shift!O2="","",IF(_acsReport_day_shift!O2&gt;0,_acsReport_day_shift!O2,""))</f>
         <v/>
       </c>
       <c r="R5" t="str">
-        <f>IF(_acsReport_day_shift!P2="","",_acsReport_day_shift!P2)</f>
+        <f>IF(_acsReport_day_shift!P2="","",IF(_acsReport_day_shift!P2&gt;0,_acsReport_day_shift!P2,""))</f>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f>IF(_acsReport_day_shift!Q2="","",_acsReport_day_shift!Q2)</f>
+        <f>IF(_acsReport_day_shift!Q2="","",IF(_acsReport_day_shift!Q2&gt;0,_acsReport_day_shift!Q2,""))</f>
         <v/>
       </c>
       <c r="T5" t="str">
-        <f>IF(_acsReport_day_shift!R2="","",_acsReport_day_shift!R2)</f>
+        <f>IF(_acsReport_day_shift!R2="","",IF(_acsReport_day_shift!R2&gt;0,_acsReport_day_shift!R2,""))</f>
         <v/>
       </c>
       <c r="U5" t="str">
-        <f>IF(_acsReport_day_shift!S2="","",_acsReport_day_shift!S2)</f>
+        <f>IF(_acsReport_day_shift!S2="","",IF(_acsReport_day_shift!S2&gt;0,_acsReport_day_shift!S2,""))</f>
         <v/>
       </c>
       <c r="V5" t="str">
-        <f>IF(_acsReport_day_shift!T2="","",_acsReport_day_shift!T2)</f>
+        <f>IF(_acsReport_day_shift!T2="","",IF(_acsReport_day_shift!T2&gt;0,_acsReport_day_shift!T2,""))</f>
         <v/>
       </c>
       <c r="W5" t="str">
-        <f>IF(_acsReport_day_shift!U2="","",_acsReport_day_shift!U2)</f>
+        <f>IF(_acsReport_day_shift!U2="","",IF(_acsReport_day_shift!U2&gt;0,_acsReport_day_shift!U2,""))</f>
         <v/>
       </c>
       <c r="X5" t="str">
-        <f>IF(_acsReport_day_shift!V2="","",_acsReport_day_shift!V2)</f>
+        <f>IF(_acsReport_day_shift!V2="","",IF(_acsReport_day_shift!V2&gt;0,_acsReport_day_shift!V2,""))</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="23.25" customHeight="1" spans="1:24">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f>IF(_acsReport_day_shift!A3="","",_acsReport_day_shift!A3)</f>
+        <f>IF(_acsReport_day_shift!A3="","",IF(_acsReport_day_shift!A3&gt;0,_acsReport_day_shift!A3,""))</f>
         <v/>
       </c>
       <c r="D6" t="str">
-        <f>IF(_acsReport_day_shift!B3="","",_acsReport_day_shift!B3)</f>
+        <f>IF(_acsReport_day_shift!B3="","",IF(_acsReport_day_shift!B3&gt;0,_acsReport_day_shift!B3,""))</f>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(_acsReport_day_shift!C3="","",_acsReport_day_shift!C3)</f>
+        <f>IF(_acsReport_day_shift!C3="","",IF(_acsReport_day_shift!C3&gt;0,_acsReport_day_shift!C3,""))</f>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(_acsReport_day_shift!D3="","",_acsReport_day_shift!D3)</f>
+        <f>IF(_acsReport_day_shift!D3="","",IF(_acsReport_day_shift!D3&gt;0,_acsReport_day_shift!D3,""))</f>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>IF(_acsReport_day_shift!E3="","",_acsReport_day_shift!E3)</f>
+        <f>IF(_acsReport_day_shift!E3="","",IF(_acsReport_day_shift!E3&gt;0,_acsReport_day_shift!E3,""))</f>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f>IF(_acsReport_day_shift!F3="","",_acsReport_day_shift!F3)</f>
+        <f>IF(_acsReport_day_shift!F3="","",IF(_acsReport_day_shift!F3&gt;0,_acsReport_day_shift!F3,""))</f>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f>IF(_acsReport_day_shift!G3="","",_acsReport_day_shift!G3)</f>
+        <f>IF(_acsReport_day_shift!G3="","",IF(_acsReport_day_shift!G3&gt;0,_acsReport_day_shift!G3,""))</f>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF(_acsReport_day_shift!H3="","",_acsReport_day_shift!H3)</f>
+        <f>IF(_acsReport_day_shift!H3="","",IF(_acsReport_day_shift!H3&gt;0,_acsReport_day_shift!H3,""))</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(_acsReport_day_shift!I3="","",_acsReport_day_shift!I3)</f>
+        <f>IF(_acsReport_day_shift!I3="","",IF(_acsReport_day_shift!I3&gt;0,_acsReport_day_shift!I3,""))</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF(_acsReport_day_shift!J3="","",_acsReport_day_shift!J3)</f>
+        <f>IF(_acsReport_day_shift!J3="","",IF(_acsReport_day_shift!J3&gt;0,_acsReport_day_shift!J3,""))</f>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f>IF(_acsReport_day_shift!K3="","",_acsReport_day_shift!K3)</f>
+        <f>IF(_acsReport_day_shift!K3="","",IF(_acsReport_day_shift!K3&gt;0,_acsReport_day_shift!K3,""))</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f>IF(_acsReport_day_shift!L3="","",_acsReport_day_shift!L3)</f>
+        <f>IF(_acsReport_day_shift!L3="","",IF(_acsReport_day_shift!L3&gt;0,_acsReport_day_shift!L3,""))</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f>IF(_acsReport_day_shift!M3="","",_acsReport_day_shift!M3)</f>
+        <f>IF(_acsReport_day_shift!M3="","",IF(_acsReport_day_shift!M3&gt;0,_acsReport_day_shift!M3,""))</f>
         <v/>
       </c>
       <c r="P6" t="str">
-        <f>IF(_acsReport_day_shift!N3="","",_acsReport_day_shift!N3)</f>
+        <f>IF(_acsReport_day_shift!N3="","",IF(_acsReport_day_shift!N3&gt;0,_acsReport_day_shift!N3,""))</f>
         <v/>
       </c>
       <c r="Q6" t="str">
-        <f>IF(_acsReport_day_shift!O3="","",_acsReport_day_shift!O3)</f>
+        <f>IF(_acsReport_day_shift!O3="","",IF(_acsReport_day_shift!O3&gt;0,_acsReport_day_shift!O3,""))</f>
         <v/>
       </c>
       <c r="R6" t="str">
-        <f>IF(_acsReport_day_shift!P3="","",_acsReport_day_shift!P3)</f>
+        <f>IF(_acsReport_day_shift!P3="","",IF(_acsReport_day_shift!P3&gt;0,_acsReport_day_shift!P3,""))</f>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f>IF(_acsReport_day_shift!Q3="","",_acsReport_day_shift!Q3)</f>
+        <f>IF(_acsReport_day_shift!Q3="","",IF(_acsReport_day_shift!Q3&gt;0,_acsReport_day_shift!Q3,""))</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f>IF(_acsReport_day_shift!R3="","",_acsReport_day_shift!R3)</f>
+        <f>IF(_acsReport_day_shift!R3="","",IF(_acsReport_day_shift!R3&gt;0,_acsReport_day_shift!R3,""))</f>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f>IF(_acsReport_day_shift!S3="","",_acsReport_day_shift!S3)</f>
+        <f>IF(_acsReport_day_shift!S3="","",IF(_acsReport_day_shift!S3&gt;0,_acsReport_day_shift!S3,""))</f>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f>IF(_acsReport_day_shift!T3="","",_acsReport_day_shift!T3)</f>
+        <f>IF(_acsReport_day_shift!T3="","",IF(_acsReport_day_shift!T3&gt;0,_acsReport_day_shift!T3,""))</f>
         <v/>
       </c>
       <c r="W6" t="str">
-        <f>IF(_acsReport_day_shift!U3="","",_acsReport_day_shift!U3)</f>
+        <f>IF(_acsReport_day_shift!U3="","",IF(_acsReport_day_shift!U3&gt;0,_acsReport_day_shift!U3,""))</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f>IF(_acsReport_day_shift!V3="","",_acsReport_day_shift!V3)</f>
+        <f>IF(_acsReport_day_shift!V3="","",IF(_acsReport_day_shift!V3&gt;0,_acsReport_day_shift!V3,""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="23.25" customHeight="1" spans="1:24">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="str">
-        <f>IF(_acsReport_day_shift!A4="","",_acsReport_day_shift!A4)</f>
+        <f>IF(_acsReport_day_shift!A4="","",IF(_acsReport_day_shift!A4&gt;0,_acsReport_day_shift!A4,""))</f>
         <v/>
       </c>
       <c r="D7" t="str">
-        <f>IF(_acsReport_day_shift!B4="","",_acsReport_day_shift!B4)</f>
+        <f>IF(_acsReport_day_shift!B4="","",IF(_acsReport_day_shift!B4&gt;0,_acsReport_day_shift!B4,""))</f>
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>IF(_acsReport_day_shift!C4="","",_acsReport_day_shift!C4)</f>
+        <f>IF(_acsReport_day_shift!C4="","",IF(_acsReport_day_shift!C4&gt;0,_acsReport_day_shift!C4,""))</f>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(_acsReport_day_shift!D4="","",_acsReport_day_shift!D4)</f>
+        <f>IF(_acsReport_day_shift!D4="","",IF(_acsReport_day_shift!D4&gt;0,_acsReport_day_shift!D4,""))</f>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>IF(_acsReport_day_shift!E4="","",_acsReport_day_shift!E4)</f>
+        <f>IF(_acsReport_day_shift!E4="","",IF(_acsReport_day_shift!E4&gt;0,_acsReport_day_shift!E4,""))</f>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>IF(_acsReport_day_shift!F4="","",_acsReport_day_shift!F4)</f>
+        <f>IF(_acsReport_day_shift!F4="","",IF(_acsReport_day_shift!F4&gt;0,_acsReport_day_shift!F4,""))</f>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f>IF(_acsReport_day_shift!G4="","",_acsReport_day_shift!G4)</f>
+        <f>IF(_acsReport_day_shift!G4="","",IF(_acsReport_day_shift!G4&gt;0,_acsReport_day_shift!G4,""))</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IF(_acsReport_day_shift!H4="","",_acsReport_day_shift!H4)</f>
+        <f>IF(_acsReport_day_shift!H4="","",IF(_acsReport_day_shift!H4&gt;0,_acsReport_day_shift!H4,""))</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(_acsReport_day_shift!I4="","",_acsReport_day_shift!I4)</f>
+        <f>IF(_acsReport_day_shift!I4="","",IF(_acsReport_day_shift!I4&gt;0,_acsReport_day_shift!I4,""))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(_acsReport_day_shift!J4="","",_acsReport_day_shift!J4)</f>
+        <f>IF(_acsReport_day_shift!J4="","",IF(_acsReport_day_shift!J4&gt;0,_acsReport_day_shift!J4,""))</f>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IF(_acsReport_day_shift!K4="","",_acsReport_day_shift!K4)</f>
+        <f>IF(_acsReport_day_shift!K4="","",IF(_acsReport_day_shift!K4&gt;0,_acsReport_day_shift!K4,""))</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f>IF(_acsReport_day_shift!L4="","",_acsReport_day_shift!L4)</f>
+        <f>IF(_acsReport_day_shift!L4="","",IF(_acsReport_day_shift!L4&gt;0,_acsReport_day_shift!L4,""))</f>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f>IF(_acsReport_day_shift!M4="","",_acsReport_day_shift!M4)</f>
+        <f>IF(_acsReport_day_shift!M4="","",IF(_acsReport_day_shift!M4&gt;0,_acsReport_day_shift!M4,""))</f>
         <v/>
       </c>
       <c r="P7" t="str">
-        <f>IF(_acsReport_day_shift!N4="","",_acsReport_day_shift!N4)</f>
+        <f>IF(_acsReport_day_shift!N4="","",IF(_acsReport_day_shift!N4&gt;0,_acsReport_day_shift!N4,""))</f>
         <v/>
       </c>
       <c r="Q7" t="str">
-        <f>IF(_acsReport_day_shift!O4="","",_acsReport_day_shift!O4)</f>
+        <f>IF(_acsReport_day_shift!O4="","",IF(_acsReport_day_shift!O4&gt;0,_acsReport_day_shift!O4,""))</f>
         <v/>
       </c>
       <c r="R7" t="str">
-        <f>IF(_acsReport_day_shift!P4="","",_acsReport_day_shift!P4)</f>
+        <f>IF(_acsReport_day_shift!P4="","",IF(_acsReport_day_shift!P4&gt;0,_acsReport_day_shift!P4,""))</f>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f>IF(_acsReport_day_shift!Q4="","",_acsReport_day_shift!Q4)</f>
+        <f>IF(_acsReport_day_shift!Q4="","",IF(_acsReport_day_shift!Q4&gt;0,_acsReport_day_shift!Q4,""))</f>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f>IF(_acsReport_day_shift!R4="","",_acsReport_day_shift!R4)</f>
+        <f>IF(_acsReport_day_shift!R4="","",IF(_acsReport_day_shift!R4&gt;0,_acsReport_day_shift!R4,""))</f>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f>IF(_acsReport_day_shift!S4="","",_acsReport_day_shift!S4)</f>
+        <f>IF(_acsReport_day_shift!S4="","",IF(_acsReport_day_shift!S4&gt;0,_acsReport_day_shift!S4,""))</f>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f>IF(_acsReport_day_shift!T4="","",_acsReport_day_shift!T4)</f>
+        <f>IF(_acsReport_day_shift!T4="","",IF(_acsReport_day_shift!T4&gt;0,_acsReport_day_shift!T4,""))</f>
         <v/>
       </c>
       <c r="W7" t="str">
-        <f>IF(_acsReport_day_shift!U4="","",_acsReport_day_shift!U4)</f>
+        <f>IF(_acsReport_day_shift!U4="","",IF(_acsReport_day_shift!U4&gt;0,_acsReport_day_shift!U4,""))</f>
         <v/>
       </c>
       <c r="X7" t="str">
-        <f>IF(_acsReport_day_shift!V4="","",_acsReport_day_shift!V4)</f>
+        <f>IF(_acsReport_day_shift!V4="","",IF(_acsReport_day_shift!V4&gt;0,_acsReport_day_shift!V4,""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -1608,36 +996,45 @@
     <mergeCell ref="C1:L2"/>
     <mergeCell ref="M1:T2"/>
     <mergeCell ref="U1:X2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.375" customWidth="1"/>
-    <col min="2" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="6" width="41.625" customWidth="1"/>
-    <col min="7" max="10" width="43.875" customWidth="1"/>
-    <col min="11" max="14" width="42.75" customWidth="1"/>
-    <col min="15" max="16" width="49.375" customWidth="1"/>
-    <col min="17" max="18" width="48.25" customWidth="1"/>
-    <col min="19" max="20" width="49.375" customWidth="1"/>
-    <col min="21" max="22" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="49.36328125" customWidth="1"/>
+    <col min="2" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="6" width="41.6328125" customWidth="1"/>
+    <col min="7" max="10" width="43.90625" customWidth="1"/>
+    <col min="11" max="14" width="42.7265625" customWidth="1"/>
+    <col min="15" max="16" width="49.36328125" customWidth="1"/>
+    <col min="17" max="18" width="48.26953125" customWidth="1"/>
+    <col min="19" max="20" width="49.36328125" customWidth="1"/>
+    <col min="21" max="22" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1705,36 +1102,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介20181216 - v1\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -137,8 +132,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,27 +151,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,30 +755,74 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,141 +1109,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="3"/>
+      <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -702,8 +1311,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+    <row r="5" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A5" s="3" t="str">
         <f>IF(_metadata!B4="","",_metadata!B4)</f>
         <v/>
       </c>
@@ -799,8 +1408,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -893,8 +1502,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -989,6 +1598,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -996,45 +1615,36 @@
     <mergeCell ref="C1:L2"/>
     <mergeCell ref="M1:T2"/>
     <mergeCell ref="U1:X2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.36328125" customWidth="1"/>
-    <col min="2" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="6" width="41.6328125" customWidth="1"/>
-    <col min="7" max="10" width="43.90625" customWidth="1"/>
-    <col min="11" max="14" width="42.7265625" customWidth="1"/>
-    <col min="15" max="16" width="49.36328125" customWidth="1"/>
-    <col min="17" max="18" width="48.26953125" customWidth="1"/>
-    <col min="19" max="20" width="49.36328125" customWidth="1"/>
-    <col min="21" max="22" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="49.3666666666667" customWidth="1"/>
+    <col min="2" max="3" width="42.725" customWidth="1"/>
+    <col min="4" max="6" width="41.6333333333333" customWidth="1"/>
+    <col min="7" max="10" width="43.9083333333333" customWidth="1"/>
+    <col min="11" max="14" width="42.725" customWidth="1"/>
+    <col min="15" max="16" width="49.3666666666667" customWidth="1"/>
+    <col min="17" max="18" width="48.2666666666667" customWidth="1"/>
+    <col min="19" max="20" width="49.3666666666667" customWidth="1"/>
+    <col min="21" max="22" width="48.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1102,35 +1712,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -134,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,24 +148,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +181,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +210,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -200,6 +239,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -210,74 +264,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +514,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -537,11 +562,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,38 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,145 +610,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1123,7 +1116,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1313,7 +1306,7 @@
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="1:24">
       <c r="A5" s="3" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)</f>
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
       <c r="B5" t="s">

--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="ACS2_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="ACS2StrtStpMain" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +145,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +179,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -165,10 +216,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,15 +231,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,60 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,21 +291,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,13 +301,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,163 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,26 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,12 +519,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -562,9 +575,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,31 +592,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/excel/finished/能介/二空压站启停次数表.xlsx
+++ b/excel/finished/能介/二空压站启停次数表.xlsx
@@ -134,8 +134,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -148,6 +148,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -157,7 +239,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,42 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,81 +285,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -307,25 +307,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,151 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,21 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,6 +521,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,11 +562,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
